--- a/Document/接线端子与功能映射表.xlsx
+++ b/Document/接线端子与功能映射表.xlsx
@@ -268,6 +268,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>出口阀B组开（</t>
     </r>
     <r>
@@ -297,6 +304,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>出口阀B组关（</t>
     </r>
     <r>
@@ -554,8 +568,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -574,21 +588,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -596,15 +595,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,6 +603,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,9 +625,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,24 +638,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,6 +658,30 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,7 +703,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +711,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +725,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,187 +784,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,13 +1086,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,9 +1118,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,30 +1163,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1162,10 +1176,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1174,133 +1188,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1772,7 +1786,7 @@
   <sheetPr/>
   <dimension ref="B1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -2684,7 +2698,7 @@
     <mergeCell ref="B2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Document/接线端子与功能映射表.xlsx
+++ b/Document/接线端子与功能映射表.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="新版" sheetId="1" r:id="rId1"/>
-    <sheet name="老版" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="宝峰" sheetId="1" r:id="rId1"/>
+    <sheet name="马龙" sheetId="2" r:id="rId2"/>
+    <sheet name="林奇" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
-  <si>
-    <t>接线端子与功能映射表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="107">
+  <si>
+    <t>接线端子与功能映射表_晋宁（宝峰）_有线</t>
   </si>
   <si>
     <t>序号</t>
@@ -240,6 +240,39 @@
     <t>控制/监测</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线1正，线2负,线3液位,线4压力（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卧式储槽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
     <t>电动阀A</t>
   </si>
   <si>
@@ -426,9 +459,6 @@
     <t>DI0</t>
   </si>
   <si>
-    <t>未知</t>
-  </si>
-  <si>
     <t>数字输入</t>
   </si>
   <si>
@@ -519,13 +549,34 @@
     <t>用户阀3</t>
   </si>
   <si>
+    <t>接线端子与功能映射表_曲靖（马龙）_无线</t>
+  </si>
+  <si>
     <t>Q2</t>
   </si>
   <si>
-    <t>出口阀A组</t>
-  </si>
-  <si>
-    <t>Q13</t>
+    <t>无线</t>
+  </si>
+  <si>
+    <t>出口电磁阀</t>
+  </si>
+  <si>
+    <t>出口阀（1组2只电磁阀）</t>
+  </si>
+  <si>
+    <t>L/N；线1、2一组</t>
+  </si>
+  <si>
+    <t>流量计</t>
+  </si>
+  <si>
+    <t>流量监测</t>
+  </si>
+  <si>
+    <t>瞬时流量监测</t>
+  </si>
+  <si>
+    <t>交流24V</t>
   </si>
   <si>
     <r>
@@ -536,7 +587,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>出口阀B组（</t>
+      <t>Q4（</t>
     </r>
     <r>
       <rPr>
@@ -547,7 +598,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>原用户阀16</t>
+      <t>泄压电磁阀</t>
     </r>
     <r>
       <rPr>
@@ -559,6 +610,557 @@
       </rPr>
       <t>）</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q5（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q6（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">用户描述如下：  </t>
+  </si>
+  <si>
+    <t>气站内部：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①气站部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有线阀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：气相电磁阀（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、液相电磁阀（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、消音器（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>220V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>②气站部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无线阀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：气站出口电磁阀（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>220V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）（只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只），分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个无线从机。</t>
+    </r>
+  </si>
+  <si>
+    <t>用户棚内：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①启动信号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交流24V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个从机；不知道是一个启动信号对应一个用户阀，还是和晋宁的多个启动信号对应1个用户阀（泄压电磁阀）？</t>
+    </r>
+  </si>
+  <si>
+    <t>②启动信号控制方式？？</t>
+  </si>
+  <si>
+    <t>请更新林奇配置！！！！</t>
+  </si>
+  <si>
+    <t>有线Q3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原计划10路，先投用3路，需把剩余7路也做好，后期只需要接线方可投用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无线</t>
+    </r>
+  </si>
+  <si>
+    <t>（除正常投用时打开还需在气化后压力过高泄压打开）</t>
+  </si>
+  <si>
+    <t>Q5无线</t>
+  </si>
+  <si>
+    <t>Q6无线</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>②气站部分有线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：气站出口电磁阀（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>220V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①启动信号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交流24V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个从机；启动信号1对应打开用户阀1，其余相同</t>
+    </r>
+  </si>
+  <si>
+    <t>接线端子与功能映射表_昆明（林奇）_有线</t>
   </si>
 </sst>
 </file>
@@ -566,12 +1168,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,15 +1189,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,7 +1219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,39 +1233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,9 +1249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,6 +1261,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,6 +1285,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,6 +1319,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -731,7 +1334,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -739,7 +1348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,7 +1393,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,31 +1579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,73 +1597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,68 +1607,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1071,6 +1710,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1082,21 +1749,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,17 +1770,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1141,6 +1782,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,6 +1824,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1176,10 +1843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1188,137 +1855,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1328,23 +1995,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,88 +2070,136 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,6 +2261,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>490855</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2342515" y="5375275"/>
+          <a:ext cx="7802880" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1786,8 +2599,8 @@
   <sheetPr/>
   <dimension ref="B1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1847,10 +2660,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1870,106 +2683,106 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" ht="15.15" spans="2:17">
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" ht="15.15" spans="2:17">
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" ht="15.15" spans="2:17">
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="5"/>
+      <c r="M7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" ht="15.15" spans="2:17">
       <c r="B8" s="2">
@@ -2017,7 +2830,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="2">
@@ -2050,11 +2863,11 @@
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="9">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2074,72 +2887,72 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" ht="15.15" spans="2:17">
-      <c r="B11" s="5">
+      <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <v>2</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="18" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="28"/>
+      <c r="M11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" ht="15.15" spans="2:17">
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>4</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" ht="15.15" spans="2:17">
       <c r="B13" s="2">
@@ -2153,7 +2966,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="2">
@@ -2167,8 +2980,8 @@
         <v>43</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
-        <v>40</v>
+      <c r="M13" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2176,169 +2989,169 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" ht="15.15" spans="2:17">
-      <c r="B14" s="6">
+      <c r="B14" s="15">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="18">
         <v>2</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="23" t="s">
+      <c r="I14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" ht="15.15" spans="2:17">
-      <c r="B15" s="6">
+      <c r="B15" s="15">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="18">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" ht="15.15" spans="2:17">
+      <c r="B16" s="19">
+        <v>12</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="22">
+        <v>2</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21" t="s">
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" ht="15.15" spans="2:17">
+      <c r="B17" s="19">
+        <v>13</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H17" s="22">
         <v>3</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="23" t="s">
+      <c r="I17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" ht="15.15" spans="2:17">
-      <c r="B16" s="7">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="L17" s="30"/>
+      <c r="M17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="26">
-        <v>2</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" ht="15.15" spans="2:17">
-      <c r="B17" s="7">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="26">
-        <v>3</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" ht="15.15" spans="2:17">
-      <c r="B18" s="36">
+      <c r="B18" s="23">
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="29" t="s">
-        <v>60</v>
+      <c r="M18" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2346,15 +3159,15 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" ht="15.15" spans="2:17">
-      <c r="B19" s="36">
+      <c r="B19" s="23">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
@@ -2364,15 +3177,15 @@
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="29" t="s">
-        <v>63</v>
+      <c r="M19" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2380,137 +3193,137 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" ht="15.15" spans="2:17">
-      <c r="B20" s="6">
+      <c r="B20" s="15">
         <v>16</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="6">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="15">
         <v>2</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
+      <c r="I20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="23" t="s">
+      <c r="L20" s="15"/>
+      <c r="M20" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" ht="15.15" spans="2:17">
-      <c r="B21" s="6">
+      <c r="B21" s="15">
         <v>17</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="15">
         <v>2</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="22" ht="15.15" spans="2:17">
-      <c r="B22" s="7">
+      <c r="B22" s="19">
         <v>18</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="19">
         <v>2</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
+      <c r="J22" s="19"/>
+      <c r="K22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" ht="15.15" spans="2:17">
-      <c r="B23" s="37">
+      <c r="B23" s="25">
         <v>19</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="10">
         <v>2</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="15" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="30" t="s">
+      <c r="L23" s="13"/>
+      <c r="M23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" ht="15.15" spans="2:17">
-      <c r="B24" s="36">
+      <c r="B24" s="23">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2518,7 +3331,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
@@ -2527,22 +3340,22 @@
       <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="12" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="31" t="s">
+      <c r="L24" s="9"/>
+      <c r="M24" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" ht="15.15" spans="2:17">
-      <c r="B25" s="36">
+      <c r="B25" s="23">
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2550,7 +3363,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
@@ -2559,27 +3372,27 @@
       <c r="H25" s="2">
         <v>2</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="12" t="s">
+      <c r="I25" s="7"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="31" t="s">
+      <c r="L25" s="9"/>
+      <c r="M25" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="113">
@@ -2700,25 +3513,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E2:T24"/>
+  <dimension ref="B1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:T24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="19.4444444444444" customWidth="1"/>
+    <col min="17" max="17" width="17.0925925925926" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" ht="15.15"/>
-    <row r="3" ht="15.15" spans="5:20">
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" ht="15.15"/>
+    <row r="2" ht="15.15" spans="2:17">
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" ht="15.15" spans="2:17">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2731,801 +3570,1911 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" ht="15.15" spans="5:20">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" ht="15.15" spans="5:20">
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="4" ht="15.15" spans="2:17">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="8" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" ht="15.15" spans="5:20">
-      <c r="E6" s="3">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" ht="15.15" spans="2:17">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" ht="15.15" spans="2:17">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" ht="15.15" spans="2:17">
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" ht="15.15" spans="2:17">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" ht="15.15" spans="2:17">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" ht="15.15" spans="2:17">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" ht="15.15" spans="2:17">
+      <c r="B11" s="10">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" ht="15.15" spans="2:17">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" ht="15.15" spans="2:17">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" ht="15.15" spans="2:17">
+      <c r="B14" s="15">
         <v>10</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="C14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="18">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" ht="15.15" spans="2:17">
+      <c r="B15" s="23">
         <v>11</v>
       </c>
-      <c r="K6" s="3">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" ht="15.15" spans="2:17">
+      <c r="B16" s="23">
+        <v>12</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" ht="15.15" spans="2:17">
+      <c r="B17" s="23">
+        <v>13</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" ht="15.15" spans="2:17">
+      <c r="B18" s="23">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" ht="15.15" spans="2:17">
+      <c r="B19" s="23">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" ht="15.15" spans="2:17">
+      <c r="B20" s="15">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="15">
         <v>2</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="I20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" ht="15.15" spans="2:17">
+      <c r="B21" s="15">
+        <v>17</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="15">
+        <v>2</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" ht="15.15" spans="2:17">
+      <c r="B22" s="19">
+        <v>18</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" ht="15.15" spans="2:17">
+      <c r="B23" s="25">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="36"/>
+    </row>
+    <row r="24" ht="15.15" spans="2:17">
+      <c r="B24" s="23">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="37"/>
+    </row>
+    <row r="25" ht="15.15" spans="2:17">
+      <c r="B25" s="23">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="37"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="41"/>
+      <c r="C30" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+    </row>
+    <row r="42" ht="15.15"/>
+    <row r="43" ht="15.15" spans="2:17">
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" ht="15.15" spans="2:17">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" ht="15.15" spans="2:17">
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" ht="15.15" spans="2:17">
+      <c r="B46" s="23">
+        <v>1</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+    </row>
+    <row r="47" ht="15.15" spans="2:17">
+      <c r="B47" s="45">
+        <v>2</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="45">
+        <v>2</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+    </row>
+    <row r="48" ht="15.15" spans="2:17">
+      <c r="B48" s="23">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" ht="15.15" spans="2:17">
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" ht="15.15" spans="2:17">
+      <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="9">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" ht="15.15" spans="2:17">
+      <c r="B51" s="2">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" ht="15.15" spans="2:17">
+      <c r="B52" s="45">
+        <v>7</v>
+      </c>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+    </row>
+    <row r="53" ht="15.15" spans="2:17">
+      <c r="B53" s="49">
+        <v>8</v>
+      </c>
+      <c r="C53" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="D53" s="49"/>
+      <c r="E53" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="49">
+        <v>4</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49"/>
+    </row>
+    <row r="54" ht="15.15" spans="2:17">
+      <c r="B54" s="2">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2">
+        <v>4</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" ht="15.15" spans="2:17">
+      <c r="B55" s="51">
+        <v>10</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="54">
+        <v>2</v>
+      </c>
+      <c r="I55" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="J55" s="51"/>
+      <c r="K55" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="62"/>
+      <c r="M55" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+    </row>
+    <row r="56" ht="15.15" spans="2:17">
+      <c r="B56" s="23">
+        <v>11</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+    </row>
+    <row r="57" ht="15.15" spans="2:17">
+      <c r="B57" s="23">
+        <v>12</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+    </row>
+    <row r="58" ht="15.15" spans="2:17">
+      <c r="B58" s="23">
         <v>13</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="9" t="s">
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+    </row>
+    <row r="59" ht="15.15" spans="2:17">
+      <c r="B59" s="23">
         <v>14</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" ht="15.15" spans="5:20">
-      <c r="E7" s="4">
+      <c r="C59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="2">
+        <v>4</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" ht="15.15" spans="2:17">
+      <c r="B60" s="23">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" ht="65" customHeight="1" spans="2:17">
+      <c r="B61" s="51">
+        <v>16</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="51">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="I61" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="L61" s="51"/>
+      <c r="M61" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+    </row>
+    <row r="62" ht="15.15" spans="2:17">
+      <c r="B62" s="51">
+        <v>17</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" s="51">
+        <v>2</v>
+      </c>
+      <c r="I62" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+    </row>
+    <row r="63" ht="15.15" spans="2:17">
+      <c r="B63" s="55">
+        <v>18</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="55">
+        <v>2</v>
+      </c>
+      <c r="I63" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+    </row>
+    <row r="64" ht="52" customHeight="1" spans="2:17">
+      <c r="B64" s="56">
+        <v>19</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="57"/>
+      <c r="E64" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" s="59"/>
+      <c r="G64" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="4">
+      <c r="H64" s="57">
         <v>2</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" ht="15.15" spans="5:20">
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="I64" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="J64" s="66"/>
+      <c r="K64" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="68"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="71"/>
+    </row>
+    <row r="65" ht="15.15" spans="2:17">
+      <c r="B65" s="23">
         <v>20</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="C65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="4">
+      <c r="H65" s="2">
         <v>2</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="I65" s="7"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" s="9"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="37"/>
+    </row>
+    <row r="66" ht="15.15" spans="2:17">
+      <c r="B66" s="23">
         <v>21</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" ht="15.15" spans="5:20">
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="2">
+      <c r="H66" s="2">
         <v>2</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="I66" s="7"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" ht="15.15" spans="5:20">
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" ht="15.15" spans="5:20">
-      <c r="E11" s="2">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="14">
-        <v>2</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" ht="15.15" spans="5:20">
-      <c r="E12" s="5">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="17">
-        <v>2</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" ht="15.15" spans="5:20">
-      <c r="E13" s="3">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3">
-        <v>4</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" ht="15.15" spans="5:20">
-      <c r="E14" s="2">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2">
-        <v>4</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" ht="15.15" spans="5:20">
-      <c r="E15" s="6">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="22">
-        <v>2</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" ht="15.15" spans="5:20">
-      <c r="E16" s="7">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="26">
-        <v>2</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" ht="15.15" spans="5:20">
-      <c r="E17" s="2">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2">
-        <v>4</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" ht="15.15" spans="5:20">
-      <c r="E18" s="2">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2">
-        <v>4</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" ht="15.15" spans="5:20">
-      <c r="E19" s="6">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="6">
-        <v>2</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" ht="15.15" spans="5:20">
-      <c r="E20" s="6">
-        <v>15</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="6">
-        <v>2</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" ht="15.15" spans="5:20">
-      <c r="E21" s="7">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="7">
-        <v>2</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-    </row>
-    <row r="22" ht="15.15" spans="5:20">
-      <c r="E22" s="5">
-        <v>17</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="5">
-        <v>2</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="33"/>
-    </row>
-    <row r="23" ht="15.15" spans="5:20">
-      <c r="E23" s="2">
-        <v>18</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="35"/>
-    </row>
-    <row r="24" ht="15.15" spans="5:20">
-      <c r="E24" s="2">
-        <v>19</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2">
-        <v>2</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="35"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="37"/>
+    </row>
+    <row r="69" spans="2:17">
+      <c r="B69" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="41"/>
+      <c r="C71" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="E3:T4"/>
+  <mergeCells count="223">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:Q47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:Q64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:Q65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:Q66"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="H39:K40"/>
+    <mergeCell ref="B43:Q44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3536,14 +5485,908 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="16.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15"/>
+    <row r="2" ht="15.15" spans="2:17">
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" ht="15.15" spans="2:17">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" ht="15.15" spans="2:17">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" ht="15.15" spans="2:17">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" ht="15.15" spans="2:17">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" ht="15.15" spans="2:17">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" ht="15.15" spans="2:17">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" ht="15.15" spans="2:17">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" ht="15.15" spans="2:17">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" ht="15.15" spans="2:17">
+      <c r="B11" s="10">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" ht="15.15" spans="2:17">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" ht="15.15" spans="2:17">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" ht="15.15" spans="2:17">
+      <c r="B14" s="15">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="18">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" ht="15.15" spans="2:17">
+      <c r="B15" s="15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="18">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" ht="15.15" spans="2:17">
+      <c r="B16" s="19">
+        <v>12</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="22">
+        <v>2</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" ht="15.15" spans="2:17">
+      <c r="B17" s="19">
+        <v>13</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="22">
+        <v>3</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" ht="15.15" spans="2:17">
+      <c r="B18" s="23">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" ht="15.15" spans="2:17">
+      <c r="B19" s="23">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" ht="15.15" spans="2:17">
+      <c r="B20" s="15">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" ht="15.15" spans="2:17">
+      <c r="B21" s="15">
+        <v>17</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="15">
+        <v>2</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" ht="15.15" spans="2:17">
+      <c r="B22" s="19">
+        <v>18</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" ht="15.15" spans="2:17">
+      <c r="B23" s="25">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="36"/>
+    </row>
+    <row r="24" ht="15.15" spans="2:17">
+      <c r="B24" s="23">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="37"/>
+    </row>
+    <row r="25" ht="15.15" spans="2:17">
+      <c r="B25" s="23">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="111">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B2:Q3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
